--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B849CFEE-438F-44EC-8DE8-E7CBC0856FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B064B-08E7-4415-80D0-6543B9F25A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="29385" yWindow="3675" windowWidth="21630" windowHeight="15030" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sprint 5" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 6" sheetId="6" r:id="rId6"/>
     <sheet name="Sprint 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint 8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="134">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -432,6 +433,15 @@
   </si>
   <si>
     <t>Tobias</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein das Level zurück zu setzten, um mein UML-Ablaufdiagramm anpassen und es noch einmal versuchen zu können.</t>
+  </si>
+  <si>
+    <t>Alle: Sprint Planen</t>
+  </si>
+  <si>
+    <t>Alle: Arbeitspakete neu definieren</t>
   </si>
 </sst>
 </file>
@@ -5000,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B080AE8-9EA4-41D7-B4E7-811DE3A0D175}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5608,6 +5618,538 @@
       <c r="F31" s="6">
         <f>COUNT(F16:F30)</f>
         <v>9</v>
+      </c>
+      <c r="G31" s="6">
+        <f>COUNT(G16:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E30" si="0">D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f>COUNT(A16:A30)</f>
+        <v>1</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <f>SUM(C16:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <f>SUM(D16:D30)</f>
+        <v>15</v>
+      </c>
+      <c r="E31" s="6">
+        <f>SUM(E16:E30)</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="6">
+        <f>COUNT(F16:F30)</f>
+        <v>0</v>
       </c>
       <c r="G31" s="6">
         <f>COUNT(G16:G30)</f>
@@ -5646,6 +6188,5 @@
     <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83B064B-08E7-4415-80D0-6543B9F25A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87894D23-71FC-4EC5-9599-3C10FA84CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="3675" windowWidth="21630" windowHeight="15030" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>Alle: Arbeitspakete neu definieren</t>
+  </si>
+  <si>
+    <t>Alle: Sprint Review und Projekt Idee</t>
   </si>
 </sst>
 </file>
@@ -692,6 +695,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,12 +735,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,27 +756,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1088,28 +1091,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1123,131 +1126,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45236</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1645,12 +1648,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1665,6 +1662,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1692,28 +1695,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1727,131 +1730,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45251</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2196,6 +2199,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2203,19 +2219,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2243,28 +2246,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2278,131 +2281,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45265</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2835,6 +2838,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -2842,19 +2858,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2884,28 +2887,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2919,131 +2922,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45279</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3544,6 +3547,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -3551,19 +3567,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3590,28 +3593,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3625,131 +3628,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45307</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4295,6 +4298,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -4302,19 +4318,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4344,28 +4347,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4379,131 +4382,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45320</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4981,6 +4984,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -4988,19 +5004,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5011,7 +5014,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I32"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5022,28 +5025,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5057,137 +5060,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45384</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5203,14 +5206,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5634,6 +5637,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5641,19 +5657,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5665,7 +5668,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5681,28 +5684,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5716,135 +5719,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45398</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5860,14 +5865,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5945,16 +5950,25 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6141,11 +6155,11 @@
       </c>
       <c r="D31" s="6">
         <f>SUM(D16:D30)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E16:E30)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F31" s="6">
         <f>COUNT(F16:F30)</f>
@@ -6166,6 +6180,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -6173,19 +6200,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87894D23-71FC-4EC5-9599-3C10FA84CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392D4ADE-5B73-4FA7-B120-923FED604481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="143">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -445,6 +445,30 @@
   </si>
   <si>
     <t>Alle: Sprint Review und Projekt Idee</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das ein Roboter anhand des von mir erstellten Diagramms agiert.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein das UML-Ablaufdiagramm zu starten.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich erkennen können welches UML-Element gerade ausgeführt wird.</t>
+  </si>
+  <si>
+    <t>Dominik: not visible because UML is instantly completed</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das ein Roboter automatisch anhält bevor er gegen eine Wand läuft.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich ein UML-Element zur Auswahl haben welches das Bewegen des Roboters ermöglicht.</t>
+  </si>
+  <si>
+    <t>Dominik: Pause Button never available because UML is instantly completed | What needs to be reset?</t>
+  </si>
+  <si>
+    <t>Dominik: Delegate or Enum? (technicaly works)</t>
   </si>
 </sst>
 </file>
@@ -695,33 +719,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,6 +732,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,6 +759,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,28 +1115,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1126,131 +1150,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45236</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1648,6 +1672,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1662,12 +1692,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1695,28 +1719,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1730,131 +1754,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45251</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2199,6 +2223,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -2206,19 +2243,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2246,28 +2270,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2281,131 +2305,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45265</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2838,6 +2862,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2845,19 +2882,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2887,28 +2911,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2922,131 +2946,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45279</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3547,6 +3571,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -3554,19 +3591,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3593,28 +3617,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3628,131 +3652,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45307</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4298,6 +4322,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -4305,19 +4342,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4347,28 +4371,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4382,131 +4406,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45320</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4984,6 +5008,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -4991,19 +5028,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5025,28 +5049,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5060,137 +5084,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45384</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5206,14 +5230,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5637,6 +5661,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -5644,19 +5681,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5668,7 +5692,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,32 +5704,32 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5719,137 +5743,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45398</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5865,14 +5889,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5987,104 +6011,178 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="A21" s="8">
+        <v>174</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6</v>
+      </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6</v>
+      </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="A23" s="8">
+        <v>175</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>-1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="A24" s="8">
+        <v>176</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="A25" s="8">
+        <v>177</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="A26" s="8">
+        <v>178</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>-1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6146,28 +6244,28 @@
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f>COUNT(A16:A30)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
         <f>SUM(C16:C30)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D31" s="6">
         <f>SUM(D16:D30)</f>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E16:E30)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F31" s="6">
         <f>COUNT(F16:F30)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="6">
         <f>COUNT(G16:G30)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="2"/>
@@ -6180,6 +6278,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -6187,19 +6298,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392D4ADE-5B73-4FA7-B120-923FED604481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB270546-D99B-455B-B2A0-2BB3AD403B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="158">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -469,6 +469,51 @@
   </si>
   <si>
     <t>Dominik: Delegate or Enum? (technicaly works)</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein UML-Elemente mit Pfeilen verbinden könne, um den Ablauf klar erkennen zu können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein UML-Elemente mittels Drag and Drop verschieben können, um die Ansicht frei zu gestalten.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein UML-Elemente über ein PopUp Fenster zu erstellen.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein UML-Elemente über Drag and Drop einer Vorlage zu erstellen.</t>
+  </si>
+  <si>
+    <t>Vincent: Snapping does not work when UML-Elements are moved</t>
+  </si>
+  <si>
+    <t>Vincent: Position problem when moving outside of box =&gt; delete</t>
+  </si>
+  <si>
+    <t>Vincent: Preset position changes when copied</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich Schadensquellen konfrontiert werden, um schwierigere Rätsel zu ermöglichen.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das Wasser eine große Gefahr für die Roboter darstellt.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das ein Roboter eine begrenze Anzahl an Leben hat.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein die Leben eines Roboters jederzeit einzusehen.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich eine Anzeige bekommen, wenn ich ein Level nicht erfolgreich absolviert habe.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich eine Anzeige bekommen, wenn ich ein Level erfolgreich absolviert habe.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein die Anzahl des gesammtenen und noch verbleibenden Mülls einzusehen.</t>
+  </si>
+  <si>
+    <t>Johann: Only prefeb exist. No linked to logic yet</t>
   </si>
 </sst>
 </file>
@@ -719,6 +764,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,12 +804,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,27 +825,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1115,28 +1160,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1150,131 +1195,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45236</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1672,12 +1717,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1692,6 +1731,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1719,28 +1764,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1754,131 +1799,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45251</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2223,6 +2268,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2230,19 +2288,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2270,28 +2315,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2305,131 +2350,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45265</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2862,6 +2907,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -2869,19 +2927,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2911,28 +2956,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2946,131 +2991,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45279</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3571,6 +3616,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -3578,19 +3636,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3617,28 +3662,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3652,131 +3697,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45307</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4322,6 +4367,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -4329,19 +4387,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4371,28 +4416,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4406,131 +4451,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45320</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5008,6 +5053,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5015,19 +5073,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5049,28 +5094,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5084,137 +5129,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45384</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5230,14 +5275,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5661,6 +5706,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5668,19 +5726,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5689,10 +5734,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5708,28 +5753,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5743,137 +5788,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45398</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5889,14 +5934,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5962,7 +6007,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17:E30" si="0">D17-C17</f>
+        <f t="shared" ref="E17:E41" si="0">D17-C17</f>
         <v>10</v>
       </c>
       <c r="F17" s="3"/>
@@ -6020,11 +6065,11 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4">
@@ -6046,11 +6091,11 @@
         <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="4">
@@ -6068,11 +6113,11 @@
         <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
@@ -6200,84 +6245,391 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="A28" s="8">
+        <v>169</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="8">
+        <v>170</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <f>COUNT(A16:A30)</f>
-        <v>6</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <f>SUM(C16:C30)</f>
-        <v>24</v>
-      </c>
-      <c r="D31" s="6">
-        <f>SUM(D16:D30)</f>
-        <v>37</v>
-      </c>
-      <c r="E31" s="6">
-        <f>SUM(E16:E30)</f>
-        <v>13</v>
-      </c>
-      <c r="F31" s="6">
-        <f>COUNT(F16:F30)</f>
-        <v>2</v>
-      </c>
-      <c r="G31" s="6">
-        <f>COUNT(G16:G30)</f>
+      <c r="A31" s="8">
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7">
         <v>4</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32">
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>179</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>180</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>181</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>182</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>183</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>184</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>185</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f>COUNT(A16:A41)</f>
+        <v>17</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <f>SUM(C16:C41)</f>
+        <v>60</v>
+      </c>
+      <c r="D42" s="6">
+        <f>SUM(D16:D41)</f>
+        <v>60</v>
+      </c>
+      <c r="E42" s="6">
+        <f>SUM(E16:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <f>COUNT(F16:F41)</f>
+        <v>8</v>
+      </c>
+      <c r="G42" s="6">
+        <f>COUNT(G16:G41)</f>
+        <v>9</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43">
         <f>12*5</f>
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -6285,19 +6637,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB270546-D99B-455B-B2A0-2BB3AD403B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA716F93-FDE3-4E02-8D0A-7FA09DC6F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -764,33 +764,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,6 +777,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,6 +804,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,28 +1160,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1195,131 +1195,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45236</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1717,6 +1717,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1731,12 +1737,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1764,28 +1764,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1799,131 +1799,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>2</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45251</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2268,6 +2268,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -2275,19 +2288,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2315,28 +2315,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2350,131 +2350,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45265</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2907,6 +2907,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2914,19 +2927,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2956,28 +2956,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2991,131 +2991,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45279</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3616,6 +3616,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -3623,19 +3636,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3662,28 +3662,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3697,131 +3697,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45307</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4367,6 +4367,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -4374,19 +4387,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4416,28 +4416,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4451,131 +4451,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45320</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5053,6 +5053,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -5060,19 +5073,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5094,28 +5094,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5129,137 +5129,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45384</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5275,14 +5275,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5706,6 +5706,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -5713,19 +5726,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5736,14 +5736,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="141.140625" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -5753,28 +5753,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5788,137 +5788,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45398</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5934,14 +5934,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6617,6 +6617,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -6624,19 +6637,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA716F93-FDE3-4E02-8D0A-7FA09DC6F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44815515-69FD-4131-B90D-E6BA6E0F37CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sprint 6" sheetId="6" r:id="rId6"/>
     <sheet name="Sprint 7" sheetId="7" r:id="rId7"/>
     <sheet name="Sprint 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint 9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="186">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -514,6 +515,90 @@
   </si>
   <si>
     <t>Johann: Only prefeb exist. No linked to logic yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle: Sprint Review und Ausblick auf aktuellen Sprint </t>
+  </si>
+  <si>
+    <t>Alle: Git Merge</t>
+  </si>
+  <si>
+    <t>Alle: New Git-Ignore/Git Merge</t>
+  </si>
+  <si>
+    <t>Dominik: Chose Enum</t>
+  </si>
+  <si>
+    <t>Vincent: solved Problem</t>
+  </si>
+  <si>
+    <t>Tobias: On hold for now</t>
+  </si>
+  <si>
+    <t>Johann: finished</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich, dass Roboter die UML-Elemente mit einer konstanten Tick-Rate abarbeiten.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich den Status eine Roboters und dessen UML-Ablaufes einsehen können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein, zu erkennen, warum ein UML-Ablauf gescheitert ist.</t>
+  </si>
+  <si>
+    <t>Florian: implementet expandable console</t>
+  </si>
+  <si>
+    <t>Dominik: Coroutine</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich im Laufe des Spiel neue UML-Elemente freischalten.</t>
+  </si>
+  <si>
+    <t>Vincent:</t>
+  </si>
+  <si>
+    <t>Dominik: Done with Task 186</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich mindestens 3 unterschiedliche Level spielen können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich, dass ein Roboter andhand eines UML-Elementes erkennen kann, was sich auf dem nächsten Feld befindet.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das Level wechseln können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich einen Startbildschirm zur Levelauswahl haben.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich, dass meine Leistung anhand eines Ratings dargestellt wird.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich, dass Level bewegliche Hindernisse enthalten.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich ein UML-Elemente zur Auswahl haben, welches einen Roboter Müll aufsammeln lässt.</t>
+  </si>
+  <si>
+    <t>Grafiken erstellt</t>
+  </si>
+  <si>
+    <t>Johann: neue Grafiken erstellt</t>
+  </si>
+  <si>
+    <t>Git Ignore und Merge Conflicts</t>
+  </si>
+  <si>
+    <t>Dominik: Probleme mit Mergen und Git-Ignore gelöst</t>
+  </si>
+  <si>
+    <t>Dominik: Mostly done with Task 186</t>
+  </si>
+  <si>
+    <t>Tobias: Fokused on other tasks</t>
   </si>
 </sst>
 </file>
@@ -764,6 +849,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,12 +889,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,27 +910,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1160,28 +1245,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1195,131 +1280,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45236</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1717,12 +1802,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1737,6 +1816,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1764,28 +1849,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1799,131 +1884,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45251</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2268,6 +2353,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2275,19 +2373,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2315,28 +2400,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2350,131 +2435,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45265</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2907,6 +2992,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -2914,19 +3012,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2956,28 +3041,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2991,131 +3076,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45279</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3616,6 +3701,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -3623,19 +3721,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3662,28 +3747,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3697,131 +3782,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45307</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4367,6 +4452,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -4374,19 +4472,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4416,28 +4501,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4451,131 +4536,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45320</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5047,6 +5132,2657 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B080AE8-9EA4-41D7-B4E7-811DE3A0D175}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>7</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45384</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E30" si="0">D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f>COUNT(A16:A30)</f>
+        <v>9</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <f>SUM(C16:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <f>SUM(D16:D30)</f>
+        <v>45</v>
+      </c>
+      <c r="E31" s="6">
+        <f>SUM(E16:E30)</f>
+        <v>45</v>
+      </c>
+      <c r="F31" s="6">
+        <f>COUNT(F16:F30)</f>
+        <v>9</v>
+      </c>
+      <c r="G31" s="6">
+        <f>COUNT(G16:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="C32:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>8</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45398</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E41" si="0">D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>173</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>174</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>175</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>176</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>177</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>178</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>169</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>170</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>179</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>180</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>181</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>182</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>183</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>184</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>185</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f>COUNT(A16:A41)</f>
+        <v>17</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <f>SUM(C16:C41)</f>
+        <v>60</v>
+      </c>
+      <c r="D42" s="6">
+        <f>SUM(D16:D41)</f>
+        <v>60</v>
+      </c>
+      <c r="E42" s="6">
+        <f>SUM(E16:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <f>COUNT(F16:F41)</f>
+        <v>8</v>
+      </c>
+      <c r="G42" s="6">
+        <f>COUNT(G16:G41)</f>
+        <v>9</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>9</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45412</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E48" si="0">D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>174</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>176</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>177</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>183</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>184</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>186</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>187</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>188</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>189</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>190</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>191</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>192</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>193</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>194</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>195</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>196</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f>COUNT(A16:A48)</f>
+        <v>20</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6">
+        <f>SUM(C16:C48)</f>
+        <v>72</v>
+      </c>
+      <c r="D49" s="6">
+        <f>SUM(D16:D48)</f>
+        <v>60</v>
+      </c>
+      <c r="E49" s="6">
+        <f>SUM(E16:E48)</f>
+        <v>-12</v>
+      </c>
+      <c r="F49" s="6">
+        <f>COUNT(F16:F48)</f>
+        <v>17</v>
+      </c>
+      <c r="G49" s="6">
+        <f>COUNT(G16:G48)</f>
+        <v>3</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50">
         <f>12*5</f>
         <v>60</v>
       </c>
@@ -5066,1577 +7802,13 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B080AE8-9EA4-41D7-B4E7-811DE3A0D175}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>7</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
-        <v>45384</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>10</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E30" si="0">D17-C17</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>0</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <f>COUNT(A16:A30)</f>
-        <v>9</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <f>SUM(C16:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <f>SUM(D16:D30)</f>
-        <v>45</v>
-      </c>
-      <c r="E31" s="6">
-        <f>SUM(E16:E30)</f>
-        <v>45</v>
-      </c>
-      <c r="F31" s="6">
-        <f>COUNT(F16:F30)</f>
-        <v>9</v>
-      </c>
-      <c r="G31" s="6">
-        <f>COUNT(G16:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
-  <dimension ref="A1:I43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="141.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>8</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
-        <v>45398</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E41" si="0">D17-C17</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>173</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>174</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>175</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>176</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>177</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>178</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>169</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="7">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>170</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>171</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>172</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>179</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>180</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>181</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>182</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>183</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>184</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>185</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <f>COUNT(A16:A41)</f>
-        <v>17</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <f>SUM(C16:C41)</f>
-        <v>60</v>
-      </c>
-      <c r="D42" s="6">
-        <f>SUM(D16:D41)</f>
-        <v>60</v>
-      </c>
-      <c r="E42" s="6">
-        <f>SUM(E16:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <f>COUNT(F16:F41)</f>
-        <v>8</v>
-      </c>
-      <c r="G42" s="6">
-        <f>COUNT(G16:G41)</f>
-        <v>9</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44815515-69FD-4131-B90D-E6BA6E0F37CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E47BEF-D5AD-4D65-8482-0F31C20A74E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="187">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>Tobias: Fokused on other tasks</t>
+  </si>
+  <si>
+    <t>Tobias: Level fertig geplant. Noch nicht in Unity implementiert</t>
   </si>
 </sst>
 </file>
@@ -849,33 +852,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,6 +865,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,6 +892,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1245,28 +1248,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1280,131 +1283,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45236</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1802,6 +1805,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1816,12 +1825,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1849,28 +1852,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1884,131 +1887,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>2</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45251</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2353,6 +2356,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -2360,19 +2376,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2400,28 +2403,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2435,131 +2438,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45265</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2992,6 +2995,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2999,19 +3015,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3041,28 +3044,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3076,131 +3079,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45279</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3701,6 +3704,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -3708,19 +3724,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3747,28 +3750,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3782,131 +3785,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45307</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4452,6 +4455,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -4459,19 +4475,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4501,28 +4504,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4536,131 +4539,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45320</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5132,6 +5135,2657 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B080AE8-9EA4-41D7-B4E7-811DE3A0D175}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>7</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
+        <v>45384</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E30" si="0">D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f>COUNT(A16:A30)</f>
+        <v>9</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6">
+        <f>SUM(C16:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <f>SUM(D16:D30)</f>
+        <v>45</v>
+      </c>
+      <c r="E31" s="6">
+        <f>SUM(E16:E30)</f>
+        <v>45</v>
+      </c>
+      <c r="F31" s="6">
+        <f>COUNT(F16:F30)</f>
+        <v>9</v>
+      </c>
+      <c r="G31" s="6">
+        <f>COUNT(G16:G30)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
+        <v>45398</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E41" si="0">D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>173</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>174</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>175</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>176</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>177</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>178</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>169</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>170</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>179</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>180</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>181</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>182</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>183</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>184</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>185</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <f>COUNT(A16:A41)</f>
+        <v>17</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <f>SUM(C16:C41)</f>
+        <v>60</v>
+      </c>
+      <c r="D42" s="6">
+        <f>SUM(D16:D41)</f>
+        <v>60</v>
+      </c>
+      <c r="E42" s="6">
+        <f>SUM(E16:E41)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <f>COUNT(F16:F41)</f>
+        <v>8</v>
+      </c>
+      <c r="G42" s="6">
+        <f>COUNT(G16:G41)</f>
+        <v>9</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
+        <v>45412</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E48" si="0">D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>174</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>176</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>177</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>183</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>184</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>186</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>187</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>188</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>189</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>190</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>191</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>192</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>193</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>194</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>195</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>196</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f>COUNT(A16:A48)</f>
+        <v>20</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6">
+        <f>SUM(C16:C48)</f>
+        <v>72</v>
+      </c>
+      <c r="D49" s="6">
+        <f>SUM(D16:D48)</f>
+        <v>60</v>
+      </c>
+      <c r="E49" s="6">
+        <f>SUM(E16:E48)</f>
+        <v>-12</v>
+      </c>
+      <c r="F49" s="6">
+        <f>COUNT(F16:F48)</f>
+        <v>16</v>
+      </c>
+      <c r="G49" s="6">
+        <f>COUNT(G16:G48)</f>
+        <v>4</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50">
         <f>12*5</f>
         <v>60</v>
       </c>
@@ -5161,2655 +7815,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B080AE8-9EA4-41D7-B4E7-811DE3A0D175}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>7</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
-        <v>45384</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
-        <v>18</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>10</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E30" si="0">D17-C17</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>0</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <f>COUNT(A16:A30)</f>
-        <v>9</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6">
-        <f>SUM(C16:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <f>SUM(D16:D30)</f>
-        <v>45</v>
-      </c>
-      <c r="E31" s="6">
-        <f>SUM(E16:E30)</f>
-        <v>45</v>
-      </c>
-      <c r="F31" s="6">
-        <f>COUNT(F16:F30)</f>
-        <v>9</v>
-      </c>
-      <c r="G31" s="6">
-        <f>COUNT(G16:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA133F2D-2943-457D-A9B1-A19EEB09431F}">
-  <dimension ref="A1:I43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="C32:H32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="141.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>8</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
-        <v>45398</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
-        <v>18</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E41" si="0">D17-C17</f>
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>173</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>174</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>175</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>176</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>177</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>178</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>169</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="7">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7">
-        <v>4</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>170</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>171</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>172</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>179</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>180</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>181</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>182</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>183</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="7">
-        <v>2</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>184</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>185</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <f>COUNT(A16:A41)</f>
-        <v>17</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <f>SUM(C16:C41)</f>
-        <v>60</v>
-      </c>
-      <c r="D42" s="6">
-        <f>SUM(D16:D41)</f>
-        <v>60</v>
-      </c>
-      <c r="E42" s="6">
-        <f>SUM(E16:E41)</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <f>COUNT(F16:F41)</f>
-        <v>8</v>
-      </c>
-      <c r="G42" s="6">
-        <f>COUNT(G16:G41)</f>
-        <v>9</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
-  <dimension ref="A1:I50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>9</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
-        <v>45412</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
-        <v>18</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E48" si="0">D17-C17</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>173</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>174</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>176</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>177</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>169</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="7">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>171</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>172</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>183</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>184</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>186</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>187</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>188</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>189</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="7">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>190</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>191</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="7">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>192</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>193</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>194</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>195</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>196</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="7">
-        <v>2</v>
-      </c>
-      <c r="D48" s="7">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <f>COUNT(A16:A48)</f>
-        <v>20</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6">
-        <f>SUM(C16:C48)</f>
-        <v>72</v>
-      </c>
-      <c r="D49" s="6">
-        <f>SUM(D16:D48)</f>
-        <v>60</v>
-      </c>
-      <c r="E49" s="6">
-        <f>SUM(E16:E48)</f>
-        <v>-12</v>
-      </c>
-      <c r="F49" s="6">
-        <f>COUNT(F16:F48)</f>
-        <v>17</v>
-      </c>
-      <c r="G49" s="6">
-        <f>COUNT(G16:G48)</f>
-        <v>3</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E47BEF-D5AD-4D65-8482-0F31C20A74E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED61F8E-43A1-4986-A507-9E6C6EFB91FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sprint 7" sheetId="7" r:id="rId7"/>
     <sheet name="Sprint 8" sheetId="8" r:id="rId8"/>
     <sheet name="Sprint 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sprint 10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -602,6 +603,57 @@
   </si>
   <si>
     <t>Tobias: Level fertig geplant. Noch nicht in Unity implementiert</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich passende Hintergrundmusik im Spiel hören.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich Soundeffekte hören, um noch besser erkennen zu können was im Spiel.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich, dass Roboter eine Batterie haben die die Anzahl der Aktionen des Roboters beschränkt.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich jeder Zeit in der Lage sein die Batterie meiner Roboter einzusehen und angezeigt bekommen wann ein Roboter wie viel Energie verliert.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das mein Fortschritt auch nach dem schließen des Spieles gespeichert bleibt.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich das Spiel auf unterschiedlichen Bildschirmgrößen spielen können.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich definieren können, dass Teile des UML-Ablaufdiagrammes eine bestimmte Anzahl wiederholt werden.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich, dass es Felder im Spiel gibt die Roboter in eine bestimmte Richtung verschieben.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ein Level zur Auswahl haben das mein Wissen über Bedingungen und Schleifen auf die Probe stellt.</t>
+  </si>
+  <si>
+    <t>Alle: Merge Conflicts Prefabs ( Soundeffects)</t>
+  </si>
+  <si>
+    <t>Alle: Sprint Planen and Merge</t>
+  </si>
+  <si>
+    <t>Florian: Scrollbars…..</t>
+  </si>
+  <si>
+    <t>Dominik: Reset counter bei UML-Start</t>
+  </si>
+  <si>
+    <t>Dominik: Tickrate jetzt dynamisch, weil Movement zu lange dauern kann</t>
+  </si>
+  <si>
+    <t>Johann: Grundgerüst vorhanden</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich Bedingungs-Blöcke mit 2 Blöcken verbinden können, um den UML-Ablauf für sowohl erfüllte als auch nicht erfüllte Bedingungen darzustellen.</t>
+  </si>
+  <si>
+    <t>Vincent: Anchors und Pivots sind beim Mergen verschoben worden…</t>
   </si>
 </sst>
 </file>
@@ -852,6 +904,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,12 +944,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,27 +965,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1248,28 +1300,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1283,131 +1335,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45236</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1805,12 +1857,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1825,9 +1871,902 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B66B8E7-E15B-49E1-A752-1E36803D9CED}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45426</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E43" si="0">D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>189</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>190</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>193</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>197</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>198</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>199</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>200</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>201</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>202</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>203</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>204</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>205</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>206</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f>COUNT(A16:A43)</f>
+        <v>13</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
+        <f>SUM(C16:C43)</f>
+        <v>42</v>
+      </c>
+      <c r="D44" s="6">
+        <f>SUM(D16:D43)</f>
+        <v>60</v>
+      </c>
+      <c r="E44" s="6">
+        <f>SUM(E16:E43)</f>
+        <v>18</v>
+      </c>
+      <c r="F44" s="6">
+        <f>COUNT(F16:F43)</f>
+        <v>11</v>
+      </c>
+      <c r="G44" s="6">
+        <f>COUNT(G16:G43)</f>
+        <v>2</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1852,28 +2791,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1887,131 +2826,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45251</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2356,6 +3295,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2363,19 +3315,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2403,28 +3342,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2438,131 +3377,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45265</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2995,6 +3934,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -3002,19 +3954,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3044,28 +3983,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3079,131 +4018,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45279</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3704,6 +4643,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -3711,19 +4663,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3750,28 +4689,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3785,131 +4724,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45307</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4455,6 +5394,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -4462,19 +5414,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4504,28 +5443,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4539,131 +5478,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45320</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5141,6 +6080,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5148,19 +6100,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5171,7 +6110,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,28 +6121,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5217,137 +6156,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45384</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -5363,14 +6302,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -5794,6 +6733,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5801,19 +6753,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5841,28 +6780,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5876,137 +6815,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45398</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -6022,14 +6961,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6699,6 +7638,1093 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
+  <dimension ref="A1:I50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>9</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45412</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17:E48" si="0">D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>173</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>174</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>176</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>177</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>171</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>172</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>183</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>184</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>186</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>187</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>188</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>189</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>190</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>191</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>192</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>193</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>194</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>195</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>196</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f>COUNT(A16:A48)</f>
+        <v>20</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6">
+        <f>SUM(C16:C48)</f>
+        <v>72</v>
+      </c>
+      <c r="D49" s="6">
+        <f>SUM(D16:D48)</f>
+        <v>60</v>
+      </c>
+      <c r="E49" s="6">
+        <f>SUM(E16:E48)</f>
+        <v>-12</v>
+      </c>
+      <c r="F49" s="6">
+        <f>COUNT(F16:F48)</f>
+        <v>16</v>
+      </c>
+      <c r="G49" s="6">
+        <f>COUNT(G16:G48)</f>
+        <v>4</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C50">
         <f>12*5</f>
         <v>60</v>
       </c>
@@ -6728,1091 +8754,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C860AD3-B448-429D-A653-63306BF24934}">
-  <dimension ref="A1:I50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>9</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
-        <v>45412</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" ref="E17:E48" si="0">D17-C17</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>173</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>174</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>176</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="7">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>177</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>169</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="7">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="7">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>171</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>172</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>183</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>184</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>186</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>187</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="7">
-        <v>2</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>188</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
-        <v>5</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>189</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="7">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>190</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="7">
-        <v>2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="7">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>191</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="7">
-        <v>2</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>192</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>193</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>194</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7">
-        <v>2</v>
-      </c>
-      <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="7">
-        <v>2</v>
-      </c>
-      <c r="D46" s="7">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>195</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>196</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="7">
-        <v>2</v>
-      </c>
-      <c r="D48" s="7">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <f>COUNT(A16:A48)</f>
-        <v>20</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6">
-        <f>SUM(C16:C48)</f>
-        <v>72</v>
-      </c>
-      <c r="D49" s="6">
-        <f>SUM(D16:D48)</f>
-        <v>60</v>
-      </c>
-      <c r="E49" s="6">
-        <f>SUM(E16:E48)</f>
-        <v>-12</v>
-      </c>
-      <c r="F49" s="6">
-        <f>COUNT(F16:F48)</f>
-        <v>16</v>
-      </c>
-      <c r="G49" s="6">
-        <f>COUNT(G16:G48)</f>
-        <v>4</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED61F8E-43A1-4986-A507-9E6C6EFB91FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A2AC5-7C6C-4B64-97E1-AA49EDF87029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="204">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -904,33 +904,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,6 +917,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,6 +944,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1300,28 +1300,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1335,131 +1335,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45236</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1857,6 +1857,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1871,12 +1877,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,28 +1904,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1939,137 +1939,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45426</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -2085,14 +2085,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,9 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="C29" s="7">
         <v>2</v>
       </c>
@@ -2745,6 +2747,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2752,19 +2767,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2791,28 +2793,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2826,131 +2828,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>2</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45251</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3295,6 +3297,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -3302,19 +3317,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3342,28 +3344,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3377,131 +3379,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45265</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3934,6 +3936,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -3941,19 +3956,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3983,28 +3985,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4018,131 +4020,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45279</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4643,6 +4645,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -4650,19 +4665,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4689,28 +4691,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4724,131 +4726,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45307</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5394,6 +5396,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -5401,19 +5416,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5443,28 +5445,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5478,131 +5480,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45320</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -6080,6 +6082,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -6087,19 +6102,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6121,28 +6123,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -6156,137 +6158,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45384</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -6302,14 +6304,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6733,6 +6735,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -6740,19 +6755,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6780,28 +6782,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -6815,137 +6817,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45398</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -6961,14 +6963,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7644,6 +7646,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -7651,19 +7666,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7690,28 +7692,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -7725,137 +7727,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>9</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45412</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -7871,14 +7873,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -8731,6 +8733,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -8738,19 +8753,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A2AC5-7C6C-4B64-97E1-AA49EDF87029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB83442-D3B2-476E-8A1D-42813A376358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Sprint 8" sheetId="8" r:id="rId8"/>
     <sheet name="Sprint 9" sheetId="9" r:id="rId9"/>
     <sheet name="Sprint 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sprint 11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="221">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -654,6 +655,57 @@
   </si>
   <si>
     <t>Vincent: Anchors und Pivots sind beim Mergen verschoben worden…</t>
+  </si>
+  <si>
+    <t>Johann: VON ALTEM SPRINT</t>
+  </si>
+  <si>
+    <t>Florian: VON ALTEM SPRINT</t>
+  </si>
+  <si>
+    <t>Alle: Meeting mit Petz</t>
+  </si>
+  <si>
+    <t>Sprites und Meshes in Unity ersetzen</t>
+  </si>
+  <si>
+    <t>Arrow Sprite</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich neue Level freizuschalten, wenn ich eines erfolgreicht absolviert habe.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich VFX sehen, wenn sich ein Roboter bewegt.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich VFX sehen, wenn ein Roboter Müll sammelt.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich VFX sehen, wenn ein Roboter in ein Feuer läuft.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich ein Level zur auswahl haben in dem sich bewegenede Gegner vorkommen.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich, dass alle Bewegungen und Aktionen im Spiel einem genauen Ablauf folgen.</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein die Batterie eines Roboters wieder aufladen zu können.</t>
+  </si>
+  <si>
+    <t>Code + Unity Cleanup</t>
+  </si>
+  <si>
+    <t>Als Spieler möchte ich in der Lage sein die Funktion eines UML-Elementes mit einem Drop down zu ändern.</t>
+  </si>
+  <si>
+    <t>Dominik: Kompletter UML Ablauf musste angepasst werden</t>
+  </si>
+  <si>
+    <t>Dominik: Reset Effizienter, Level Presets erstellt, Battery von UML Actor abgekoppelt, unnötige Gamemanager Variablen und Funktionen entfernt, unnötige Prefabs entfernt</t>
+  </si>
+  <si>
+    <t>Alle: Code Cleanup, was darf alles entfernt werden</t>
   </si>
 </sst>
 </file>
@@ -904,6 +956,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,12 +996,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,27 +1017,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1300,28 +1352,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1335,131 +1387,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45236</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1857,12 +1909,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1877,6 +1923,12 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1887,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B66B8E7-E15B-49E1-A752-1E36803D9CED}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1904,28 +1956,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1939,137 +1991,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45426</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -2085,14 +2137,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2747,6 +2799,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -2754,12 +2819,837 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBABFFEE-6777-4F24-9440-1FDDCE2885C6}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="165.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>11</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
+        <v>45439</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E43" si="0">D18-C18</f>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>201</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>203</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>207</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>208</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>209</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>210</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>211</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>212</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>213</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>214</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>215</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>216</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>217</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f>COUNT(A16:A43)</f>
+        <v>13</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
+        <f>SUM(C16:C43)</f>
+        <v>44</v>
+      </c>
+      <c r="D44" s="6">
+        <f>SUM(D16:D43)</f>
+        <v>32</v>
+      </c>
+      <c r="E44" s="6">
+        <f>SUM(E16:E43)</f>
+        <v>-12</v>
+      </c>
+      <c r="F44" s="6">
+        <f>COUNT(F16:F43)</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="6">
+        <f>COUNT(G16:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -2767,6 +3657,19 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2793,28 +3696,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -2828,131 +3731,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45251</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3297,6 +4200,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -3304,19 +4220,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3344,28 +4247,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3379,131 +4282,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45265</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -3936,6 +4839,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -3943,19 +4859,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3985,28 +4888,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4020,131 +4923,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45279</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4645,6 +5548,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -4652,19 +5568,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4691,28 +5594,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4726,131 +5629,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>5</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45307</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5396,6 +6299,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -5403,19 +6319,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -5445,28 +6348,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5480,131 +6383,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45320</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -6082,6 +6985,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -6089,19 +7005,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6123,28 +7026,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -6158,137 +7061,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>7</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45384</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -6304,14 +7207,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -6735,6 +7638,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -6742,19 +7658,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6782,28 +7685,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -6817,137 +7720,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45398</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -6963,14 +7866,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7646,6 +8549,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -7653,19 +8569,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7692,28 +8595,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -7727,137 +8630,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>9</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="18">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="25">
         <v>45412</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19">
+      <c r="B6" s="12"/>
+      <c r="C6" s="26">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -7873,14 +8776,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -8733,6 +9636,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -8740,19 +9656,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InnoLab2/Sprint_Review_Protocol.xlsx
+++ b/InnoLab2/Sprint_Review_Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\FH\Sem_4\InnoLab_Documents\InnoLab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3C4BD3-711D-4676-9686-C4E292F345C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144F411-01ED-4275-92CD-5BFCC157C19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{5C77D34F-34C3-4D2F-849C-09193AE86D67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Sprint 9" sheetId="9" r:id="rId9"/>
     <sheet name="Sprint 10" sheetId="10" r:id="rId10"/>
     <sheet name="Sprint 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sprint 12" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="234">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -709,6 +710,42 @@
   </si>
   <si>
     <t>Tobias: Level Presets erstellt, unnötige Prefabs entfernt, White Boxes mit Sprites ersetzt</t>
+  </si>
+  <si>
+    <t>Alle: Besprechung, was im Video sein soll</t>
+  </si>
+  <si>
+    <t>Alle: Rückblick aufs Semester und Überlegungen was nächstes Semester gemacht wird</t>
+  </si>
+  <si>
+    <t>Test 2 Roboters (Identify possible Problems for next Semester)</t>
+  </si>
+  <si>
+    <t>Test Custom UML-Blocks (create a new block by merging other blocks) (Identify possible Problems for next Semester)</t>
+  </si>
+  <si>
+    <t>Test Exporting Project as exe and BrowserGame</t>
+  </si>
+  <si>
+    <t>Cleanup/Update Design Document</t>
+  </si>
+  <si>
+    <t>Cleanup/Update GitHub Documentation</t>
+  </si>
+  <si>
+    <t>Create PowerPoint and Plan for Video Presentation</t>
+  </si>
+  <si>
+    <t>Johann: Musste viel geändert werden, da es seit anfang des Semesters nicht angepasst wurde</t>
+  </si>
+  <si>
+    <t>Johann: Es wurde auch ein 2h Meeting mit allen darüber gemacht.</t>
+  </si>
+  <si>
+    <t>Dominik: Geht halbwegs gut, aber man muss die ganze UI anpassen. Vor allem wenn man unterschiedliche Diagramme verwenden will</t>
+  </si>
+  <si>
+    <t>Vincent: Sehr aufwendig weil die UI sich stark verändern muss, weil man braucht eine TabView. Auch ein Speichern der Diagramme für potentielle neustarts wären praktisch.</t>
   </si>
 </sst>
 </file>
@@ -959,33 +996,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,6 +1009,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,6 +1036,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1355,28 +1392,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1390,131 +1427,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45236</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1912,6 +1949,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="C11:G11"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
@@ -1926,12 +1969,6 @@
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1959,28 +1996,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -1994,137 +2031,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>10</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45426</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -2140,14 +2177,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2796,6 +2833,1630 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBABFFEE-6777-4F24-9440-1FDDCE2885C6}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="165.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
+        <v>45439</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E43" si="0">D18-C18</f>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>201</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>203</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>207</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>208</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>209</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>210</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>211</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>212</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>213</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>214</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>215</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>216</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>217</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <f>COUNT(A16:A43)</f>
+        <v>13</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6">
+        <f>SUM(C16:C43)</f>
+        <v>44</v>
+      </c>
+      <c r="D44" s="6">
+        <f>SUM(D16:D43)</f>
+        <v>60</v>
+      </c>
+      <c r="E44" s="6">
+        <f>SUM(E16:E43)</f>
+        <v>16</v>
+      </c>
+      <c r="F44" s="6">
+        <f>COUNT(F16:F43)</f>
+        <v>11</v>
+      </c>
+      <c r="G44" s="6">
+        <f>COUNT(G16:G43)</f>
+        <v>4</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>12*5</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3089FD7-A102-4B57-9E28-FAD84BAFA6CE}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="166.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
+        <v>45454</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
+        <v>18</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <f>D16-C16</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17-C17</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E35" si="0">D18-C18</f>
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>216</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:E21" si="1">D20-C20</f>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>217</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22" si="2">D22-C22</f>
+        <v>-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>218</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>219</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>220</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>221</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>222</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>223</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f>COUNT(A16:A35)</f>
+        <v>8</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6">
+        <f>SUM(C16:C35)</f>
+        <v>44</v>
+      </c>
+      <c r="D36" s="6">
+        <f>SUM(D16:D35)</f>
+        <v>60</v>
+      </c>
+      <c r="E36" s="6">
+        <f>SUM(E16:E35)</f>
+        <v>16</v>
+      </c>
+      <c r="F36" s="6">
+        <f>COUNT(F16:F35)</f>
+        <v>7</v>
+      </c>
+      <c r="G36" s="6">
+        <f>COUNT(G16:G35)</f>
+        <v>1</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C37">
         <f>12*5</f>
         <v>60</v>
       </c>
@@ -2815,912 +4476,13 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBABFFEE-6777-4F24-9440-1FDDCE2885C6}">
-  <dimension ref="A1:I45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="165.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>11</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
-        <v>45439</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
-        <v>18</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <f>D16-C16</f>
-        <v>5</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <f>D17-C17</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <f>2*5</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18:E43" si="0">D18-C18</f>
-        <v>10</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <f>1*5</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>201</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="7">
-        <v>4</v>
-      </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>203</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>207</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>208</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>209</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>2</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>210</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>211</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>212</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>213</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C31" s="7">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>214</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>215</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>216</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C34" s="7">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="7">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7">
-        <v>4</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="4">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="7">
-        <v>4</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>217</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <f>COUNT(A16:A43)</f>
-        <v>13</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
-        <f>SUM(C16:C43)</f>
-        <v>44</v>
-      </c>
-      <c r="D44" s="6">
-        <f>SUM(D16:D43)</f>
-        <v>60</v>
-      </c>
-      <c r="E44" s="6">
-        <f>SUM(E16:E43)</f>
-        <v>16</v>
-      </c>
-      <c r="F44" s="6">
-        <f>COUNT(F16:F43)</f>
-        <v>11</v>
-      </c>
-      <c r="G44" s="6">
-        <f>COUNT(G16:G43)</f>
-        <v>4</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <f>12*5</f>
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3747,28 +4509,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -3782,131 +4544,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
-        <v>2</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45251</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4251,6 +5013,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -4258,19 +5033,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4298,28 +5060,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4333,131 +5095,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45265</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -4890,6 +5652,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -4897,19 +5672,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4939,28 +5701,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -4974,131 +5736,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>4</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45279</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5599,6 +6361,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -5606,19 +6381,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5645,28 +6407,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -5680,131 +6442,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45307</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -6350,6 +7112,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -6357,19 +7132,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -6399,28 +7161,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -6434,131 +7196,131 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>6</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45320</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -7036,6 +7798,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -7043,19 +7818,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7077,28 +7839,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -7112,137 +7874,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45384</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -7258,14 +8020,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7689,6 +8451,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -7696,19 +8471,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7736,28 +8498,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -7771,137 +8533,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45398</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -7917,14 +8679,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -8600,6 +9362,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A1:I2"/>
@@ -8607,19 +9382,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8646,28 +9408,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5"/>
@@ -8681,137 +9443,137 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16">
         <v>9</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18">
         <v>45412</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="26">
+      <c r="B6" s="15"/>
+      <c r="C6" s="19">
         <v>18</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -8827,14 +9589,14 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -9687,6 +10449,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:G10"/>
@@ -9694,19 +10469,6 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
